--- a/NetApp_EstimationTemplate.xlsx
+++ b/NetApp_EstimationTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rchidamb\Documents\process templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEB9911B-2B5D-4109-BA45-A2A3937116C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEAC136-4448-4749-9B2E-4EB09BDD4C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="860" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="153">
   <si>
     <t>Closure</t>
   </si>
@@ -504,6 +504,9 @@
   </si>
   <si>
     <t>22/8/2019</t>
+  </si>
+  <si>
+    <t>Web service/REST1111</t>
   </si>
 </sst>
 </file>
@@ -3603,7 +3606,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -3675,7 +3678,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="67" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="B5" s="29">
         <v>21</v>
@@ -4605,6 +4608,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5D0D71B33F3324EAABDAD2CDF7780F0" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="36c5e5986ea0f2db17c38aeb6a758537">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc1bfbe7-d32f-4eb6-9fb6-11ae26f81654" xmlns:ns3="ade7fcf9-d34e-4db0-961c-db605e3e88e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="753695af9047e1c7b7e285c3799a9a85" ns2:_="" ns3:_="">
     <xsd:import namespace="cc1bfbe7-d32f-4eb6-9fb6-11ae26f81654"/>
@@ -4765,15 +4777,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E72FFC93-11CF-42DE-9C89-394FAFA285CC}">
   <ds:schemaRefs>
@@ -4792,6 +4795,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF2B988C-128D-44A8-B531-413B56477734}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C74E3D59-9559-4C27-A451-9876ED8102F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4808,12 +4819,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF2B988C-128D-44A8-B531-413B56477734}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>